--- a/sample/rangevalue/results/scenario_rangevalue.xlsx
+++ b/sample/rangevalue/results/scenario_rangevalue.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="GroupA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Results_20250921_163130" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Results_20250921_180003" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>○</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue01", "line": 11, "succeeded": false, "runned_at": "2025-09-21 16:31:30.506"}</t>
+          <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue01", "line": 11, "succeeded": true, "runned_at": "2025-09-21 17:59:47.296"}</t>
         </is>
       </c>
     </row>

--- a/sample/rangevalue/results/scenario_rangevalue.xlsx
+++ b/sample/rangevalue/results/scenario_rangevalue.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="GroupA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Results_20250921_180003" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Results_20250923_144945" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue01", "line": 11, "succeeded": true, "runned_at": "2025-09-21 17:59:47.296"}</t>
+          <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue01_read", "line": 11, "succeeded": true, "runned_at": "2025-09-23 14:49:42.056"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue02_writeread", "line": 19, "succeeded": true, "runned_at": "2025-09-23 14:49:45.535"}</t>
         </is>
       </c>
     </row>

--- a/sample/rangevalue/results/scenario_rangevalue.xlsx
+++ b/sample/rangevalue/results/scenario_rangevalue.xlsx
@@ -1,41 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\rangevalue\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E59D7-957B-47CE-A733-4F2D68CF4C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GroupA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Results_20250923_144945" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GroupA" sheetId="1" r:id="rId1"/>
+    <sheet name="Results_20250923_145759" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>テストID</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>モジュール</t>
+  </si>
+  <si>
+    <t>実行</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>A-001</t>
+  </si>
+  <si>
+    <t>Sheet1からA1:B1を取得</t>
+  </si>
+  <si>
+    <t>test\rangevalue01.py</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>A-002</t>
+  </si>
+  <si>
+    <t>Sheet2のA1:B1に設定してからA1:D1を取得</t>
+  </si>
+  <si>
+    <t>test\rangevalue02.py</t>
+  </si>
+  <si>
+    <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue01_read", "line": 11, "succeeded": true, "runned_at": "2025-09-23 14:57:53.409"}</t>
+  </si>
+  <si>
+    <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue02_writeread", "line": 19, "succeeded": true, "runned_at": "2025-09-23 14:57:56.619"}</t>
+  </si>
+  <si>
+    <t>{"testid": "A-002", "module": "rangevalue02.py", "function": "test_rangevalue02_writeread", "line": 11, "succeeded": true, "runned_at": "2025-09-23 14:57:59.819"}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="Yu Gothic"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,92 +109,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TestSetTable" displayName="TestSetTable" ref="B2:F4" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="B2:F4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TestSetTable" displayName="TestSetTable" ref="B2:F4" totalsRowShown="0">
+  <autoFilter ref="B2:F4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="テストID"/>
-    <tableColumn id="2" name="説明"/>
-    <tableColumn id="3" name="モジュール"/>
-    <tableColumn id="4" name="実行"/>
-    <tableColumn id="5" name="結果"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="テストID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="モジュール"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="実行"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="結果"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -407,102 +403,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col width="3.75" customWidth="1" min="1" max="1"/>
-    <col width="15.125" customWidth="1" min="2" max="2"/>
-    <col width="68.5" customWidth="1" min="3" max="3"/>
-    <col width="33.125" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>テストID</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>説明</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>モジュール</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>実行</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>結果</t>
-        </is>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A-001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sheet1からA1:B1を取得</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>test\rangevalue01.py</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A-002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sheet2のA1:B1に設定してからA1:D1を取得</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>test\rangevalue02.py</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -511,34 +474,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue01_read", "line": 11, "succeeded": true, "runned_at": "2025-09-23 14:49:42.056"}</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue02_writeread", "line": 19, "succeeded": true, "runned_at": "2025-09-23 14:49:45.535"}</t>
-        </is>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sample/rangevalue/results/scenario_rangevalue.xlsx
+++ b/sample/rangevalue/results/scenario_rangevalue.xlsx
@@ -1,96 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\rangevalue\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E59D7-957B-47CE-A733-4F2D68CF4C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GroupA" sheetId="1" r:id="rId1"/>
-    <sheet name="Results_20250923_145759" sheetId="2" r:id="rId2"/>
+    <sheet name="GroupA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results_20251013_070520" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>テストID</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>モジュール</t>
-  </si>
-  <si>
-    <t>実行</t>
-  </si>
-  <si>
-    <t>結果</t>
-  </si>
-  <si>
-    <t>A-001</t>
-  </si>
-  <si>
-    <t>Sheet1からA1:B1を取得</t>
-  </si>
-  <si>
-    <t>test\rangevalue01.py</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>A-002</t>
-  </si>
-  <si>
-    <t>Sheet2のA1:B1に設定してからA1:D1を取得</t>
-  </si>
-  <si>
-    <t>test\rangevalue02.py</t>
-  </si>
-  <si>
-    <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue01_read", "line": 11, "succeeded": true, "runned_at": "2025-09-23 14:57:53.409"}</t>
-  </si>
-  <si>
-    <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue02_writeread", "line": 19, "succeeded": true, "runned_at": "2025-09-23 14:57:56.619"}</t>
-  </si>
-  <si>
-    <t>{"testid": "A-002", "module": "rangevalue02.py", "function": "test_rangevalue02_writeread", "line": 11, "succeeded": true, "runned_at": "2025-09-23 14:57:59.819"}</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,33 +54,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TestSetTable" displayName="TestSetTable" ref="B2:F4" totalsRowShown="0">
-  <autoFilter ref="B2:F4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TestSetTable" displayName="TestSetTable" ref="B2:F4" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="B2:F4"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="テストID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="モジュール"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="実行"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="結果"/>
+    <tableColumn id="1" name="テストID"/>
+    <tableColumn id="2" name="説明"/>
+    <tableColumn id="3" name="モジュール"/>
+    <tableColumn id="4" name="実行"/>
+    <tableColumn id="5" name="結果"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -403,69 +407,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="68.5" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col width="3.75" customWidth="1" min="1" max="1"/>
+    <col width="15.125" customWidth="1" min="2" max="2"/>
+    <col width="68.5" customWidth="1" min="3" max="3"/>
+    <col width="33.125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>テストID</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>モジュール</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>実行</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>結果</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A-001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sheet1からA1:B1を取得</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>test\rangevalue01.py</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A-002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sheet2のA1:B1に設定してからA1:D1を取得</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>test\rangevalue02.py</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -474,31 +516,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>{"testid": "A-001", "module": "rangevalue01.py", "function": "test_rangevalue01_read", "line": 11, "succeeded": true, "runned_at": "2025-10-13 07:05:17.557"}</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>{"testid": "A-002", "module": "rangevalue02.py", "function": "test_rangevalue02_writeread", "line": 11, "succeeded": true, "runned_at": "2025-10-13 07:05:20.522"}</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>